--- a/outputs-HGR-r202-archive/g__Prevotella.xlsx
+++ b/outputs-HGR-r202-archive/g__Prevotella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW23"/>
+  <dimension ref="A1:BW22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2212,457 +2212,457 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.303310144052374e-05</v>
+        <v>0.002859551557306702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003716963223437075</v>
+        <v>0.01596171101434293</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0141077113693922</v>
+        <v>0.002891088096559774</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004907303070523869</v>
+        <v>6.883897286879494e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009064921366895884</v>
+        <v>0.0007393245876229855</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001743995994421437</v>
+        <v>0.0002732355107450057</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001683766596106179</v>
+        <v>0.00329240760085627</v>
       </c>
       <c r="I8" t="n">
-        <v>1.957793329824551e-05</v>
+        <v>0.0003854339937094485</v>
       </c>
       <c r="J8" t="n">
-        <v>1.372690411796674e-06</v>
+        <v>1.112824201905077e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>2.018373793639812e-07</v>
+        <v>2.805326004885262e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005493548207130191</v>
+        <v>0.0003590844198457912</v>
       </c>
       <c r="M8" t="n">
-        <v>0.000539708424005152</v>
+        <v>0.04085690043104114</v>
       </c>
       <c r="N8" t="n">
-        <v>4.231810489301043e-14</v>
+        <v>4.232350022704221e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002153191028267624</v>
+        <v>0.001554921031347202</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01129142092104017</v>
+        <v>8.246579562639393e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002220853852864412</v>
+        <v>0.002146474326576486</v>
       </c>
       <c r="R8" t="n">
-        <v>1.302596869272267e-06</v>
+        <v>0.01269036388875622</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002941515047616792</v>
+        <v>0.003490262062158664</v>
       </c>
       <c r="T8" t="n">
-        <v>1.317964349266592e-05</v>
+        <v>5.635052463890452e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0002763478885071769</v>
+        <v>0.01039722006387605</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01037734402499936</v>
+        <v>0.003949871391301811</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002652120618652914</v>
+        <v>0.0006705883233051472</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1776391296324595</v>
+        <v>0.001608850606543883</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01018544893892976</v>
+        <v>0.007693385205319493</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0002296363420679363</v>
+        <v>0.00192000980322211</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02338776980302853</v>
+        <v>1.205543916841789e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02434433338844568</v>
+        <v>0.1539072279067424</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0004978007560153508</v>
+        <v>0.001086904810437673</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1419177055980228</v>
+        <v>0.005888831835263843</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.004374475429281514</v>
+        <v>0.00673306184945738</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.471827920684034e-05</v>
+        <v>0.0001330528074548463</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.90234447486768e-05</v>
+        <v>0.0001681923205585394</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0007695439179594917</v>
+        <v>0.0005113181546928318</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.2546567891437834</v>
+        <v>0.01899489708493491</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.003537481915674958</v>
+        <v>0.03631456213013271</v>
       </c>
       <c r="AK8" t="n">
-        <v>5.800412868527827e-07</v>
+        <v>9.109596762051518e-07</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0009985143691899946</v>
+        <v>0.0001700076658183366</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.003095668466981252</v>
+        <v>0.003468286562016757</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.003816122792625671</v>
+        <v>0.01055743377228955</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.01452207942517459</v>
+        <v>0.0302464567395395</v>
       </c>
       <c r="AP8" t="n">
-        <v>4.441483042125538e-06</v>
+        <v>4.500415010716875e-08</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0003545283148583218</v>
+        <v>0.00249049873085484</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.316474017710376e-06</v>
+        <v>0.001133763174498409</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.04460156047567033</v>
+        <v>0.001370801751711287</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.404379582484871e-05</v>
+        <v>0.004392587651748318</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.005659529344389772</v>
+        <v>2.687303751665943e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0158071711231817</v>
+        <v>0.1108700489488</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.533781731720608e-07</v>
+        <v>2.507805675102271e-09</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.006764557416978722</v>
+        <v>0.0002140440046331362</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.004104277095428244</v>
+        <v>0.01070363054379194</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.02792722646350418</v>
+        <v>0.04195307426610414</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0155100655457799</v>
+        <v>0.007503012148927831</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0002435984652269675</v>
+        <v>0.0001010088873847765</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0001161069548517627</v>
+        <v>2.629730924501756e-06</v>
       </c>
       <c r="BD8" t="n">
-        <v>3.732063406687477e-06</v>
+        <v>1.035347560875599e-08</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0003599509925731254</v>
+        <v>1.036334961649027e-07</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0003197693077561064</v>
+        <v>1.205354589938243e-06</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0009779089430715252</v>
+        <v>1.761649668269947e-05</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0001386138464220636</v>
+        <v>0.0002812697966598357</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.006276308519696197</v>
+        <v>0.01145770650391588</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2.896693836910378e-07</v>
+        <v>1.095929228630334e-05</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.01012224551915623</v>
+        <v>0.02240910102175434</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0002439943193530075</v>
+        <v>0.004022998123066041</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.000419186278461454</v>
+        <v>4.097312228568564e-05</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0007677085960939295</v>
+        <v>0.001051430785191943</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.006915696138236402</v>
+        <v>0.02533790779524277</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.064700031973788e-05</v>
+        <v>5.201873081929457e-06</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.002303250113928914</v>
+        <v>0.001458716528458553</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.01243705215094312</v>
+        <v>0.05720211076552179</v>
       </c>
       <c r="BS8" t="n">
-        <v>2.747429586973071e-05</v>
+        <v>0.003865806400210711</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.1066872781156358</v>
+        <v>0.309954871907355</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2546567891437834</v>
+        <v>0.309954871907355</v>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>s__Prevotella sp900544495</t>
+          <t>s__Prevotella stercorea</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>s__Prevotella sp900544495</t>
+          <t>s__Prevotella stercorea(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002859551557306702</v>
+        <v>0.007250233746028737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01596171101434293</v>
+        <v>0.01244596445728653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002891088096559774</v>
+        <v>0.001239694072561554</v>
       </c>
       <c r="E9" t="n">
-        <v>6.883897286879494e-05</v>
+        <v>0.0005568384544444286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007393245876229855</v>
+        <v>0.000709229243936635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002732355107450057</v>
+        <v>0.0001475120542713343</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00329240760085627</v>
+        <v>0.002104607566521687</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003854339937094485</v>
+        <v>0.001688559353051759</v>
       </c>
       <c r="J9" t="n">
-        <v>1.112824201905077e-06</v>
+        <v>1.240755162743575e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.805326004885262e-05</v>
+        <v>2.75696369135309e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003590844198457912</v>
+        <v>0.001634895472794652</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04085690043104114</v>
+        <v>0.02406772470044096</v>
       </c>
       <c r="N9" t="n">
-        <v>4.232350022704221e-14</v>
+        <v>3.435348293073785e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001554921031347202</v>
+        <v>0.000803960584439768</v>
       </c>
       <c r="P9" t="n">
-        <v>8.246579562639393e-05</v>
+        <v>4.099393764852011e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002146474326576486</v>
+        <v>0.004766847940714045</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01269036388875622</v>
+        <v>0.00264410259109174</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003490262062158664</v>
+        <v>0.09088813566146964</v>
       </c>
       <c r="T9" t="n">
-        <v>5.635052463890452e-06</v>
+        <v>3.562001617367317e-05</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01039722006387605</v>
+        <v>0.002555098018396384</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003949871391301811</v>
+        <v>0.007698541684704623</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0006705883233051472</v>
+        <v>0.0008586746952618499</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001608850606543883</v>
+        <v>0.01019642770802833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.007693385205319493</v>
+        <v>0.01222269829563464</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00192000980322211</v>
+        <v>0.00189704944007652</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.205543916841789e-05</v>
+        <v>9.630940934699179e-06</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1539072279067424</v>
+        <v>0.028179141760798</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001086904810437673</v>
+        <v>0.0003904641206968914</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.005888831835263843</v>
+        <v>0.004161896256552679</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00673306184945738</v>
+        <v>0.006247128640616941</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0001330528074548463</v>
+        <v>0.001013753918390163</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0001681923205585394</v>
+        <v>8.944949931954044e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0005113181546928318</v>
+        <v>0.002376069266084048</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.01899489708493491</v>
+        <v>0.05392366951729587</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.03631456213013271</v>
+        <v>0.03081688535389461</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.109596762051518e-07</v>
+        <v>2.75256702590711e-07</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001700076658183366</v>
+        <v>7.821520872053216e-05</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.003468286562016757</v>
+        <v>0.003986891931956863</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.01055743377228955</v>
+        <v>0.007142827207494257</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0302464567395395</v>
+        <v>0.01309152611197628</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.500415010716875e-08</v>
+        <v>4.986054404377374e-07</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.00249049873085484</v>
+        <v>0.0001620753728121596</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.001133763174498409</v>
+        <v>0.0003562544967507288</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.001370801751711287</v>
+        <v>0.0007169174262268008</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.004392587651748318</v>
+        <v>0.01065102306271036</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.687303751665943e-05</v>
+        <v>4.482963039476244e-05</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.1108700489488</v>
+        <v>0.113680425012418</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.507805675102271e-09</v>
+        <v>4.433360181502574e-09</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0002140440046331362</v>
+        <v>0.0003574945704473829</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.01070363054379194</v>
+        <v>0.00860729540557415</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.04195307426610414</v>
+        <v>0.03269862165181357</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.007503012148927831</v>
+        <v>0.005955871745318937</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0001010088873847765</v>
+        <v>0.0001812603016666679</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.629730924501756e-06</v>
+        <v>6.347998532504098e-06</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.035347560875599e-08</v>
+        <v>3.771360232892697e-09</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.036334961649027e-07</v>
+        <v>6.89373788743517e-06</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.205354589938243e-06</v>
+        <v>6.776631987025753e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.761649668269947e-05</v>
+        <v>1.367992338858907e-05</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.0002812697966598357</v>
+        <v>0.0004085533650548235</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01145770650391588</v>
+        <v>0.0104285844043955</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.095929228630334e-05</v>
+        <v>1.844927354184529e-06</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.02240910102175434</v>
+        <v>0.02116029475960097</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.004022998123066041</v>
+        <v>0.001913471566349949</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.097312228568564e-05</v>
+        <v>3.325698667904289e-05</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.001051430785191943</v>
+        <v>0.0003864246052735575</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.02533790779524277</v>
+        <v>0.02719686397139489</v>
       </c>
       <c r="BP9" t="n">
-        <v>5.201873081929457e-06</v>
+        <v>9.965391500387495e-06</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.001458716528458553</v>
+        <v>0.000824312729689486</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.05720211076552179</v>
+        <v>0.03265367811185952</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.003865806400210711</v>
+        <v>0.001150524984459669</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.309954871907355</v>
+        <v>0.3923485615286499</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.309954871907355</v>
+        <v>0.3923485615286499</v>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
@@ -2678,457 +2678,457 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007250233746028737</v>
+        <v>1.234085846725142e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01244596445728653</v>
+        <v>0.001695323690132826</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001239694072561554</v>
+        <v>0.002242646781472816</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0005568384544444286</v>
+        <v>1.039915190172236e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000709229243936635</v>
+        <v>0.0006389342100919383</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001475120542713343</v>
+        <v>9.307602339141893e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002104607566521687</v>
+        <v>5.812124722428192e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001688559353051759</v>
+        <v>1.419310109644434e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>1.240755162743575e-05</v>
+        <v>2.942740749670244e-10</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75696369135309e-06</v>
+        <v>1.115562406662192e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001634895472794652</v>
+        <v>3.511912033382207e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02406772470044096</v>
+        <v>1.307219796850429e-06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.435348293073785e-14</v>
+        <v>2.220588382844808e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>0.000803960584439768</v>
+        <v>0.0005554609788816797</v>
       </c>
       <c r="P10" t="n">
-        <v>4.099393764852011e-05</v>
+        <v>7.705113394480018e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004766847940714045</v>
+        <v>3.831005651824716e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00264410259109174</v>
+        <v>1.228633339943631e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>0.09088813566146964</v>
+        <v>1.415436905933131e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>3.562001617367317e-05</v>
+        <v>2.973924143275403e-06</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002555098018396384</v>
+        <v>8.621730519256505e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007698541684704623</v>
+        <v>3.801606424819868e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0008586746952618499</v>
+        <v>0.0005545910062278258</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01019642770802833</v>
+        <v>0.0002343446447037547</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01222269829563464</v>
+        <v>0.0008674910347295673</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.00189704944007652</v>
+        <v>0.002017711400637473</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.630940934699179e-06</v>
+        <v>0.9535152199999209</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.028179141760798</v>
+        <v>9.643313060919733e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0003904641206968914</v>
+        <v>0.001239711320416099</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.004161896256552679</v>
+        <v>0.0008002344000278865</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.006247128640616941</v>
+        <v>0.005169797824643676</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.001013753918390163</v>
+        <v>7.333702219514969e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.944949931954044e-05</v>
+        <v>0.0006922670110507615</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.002376069266084048</v>
+        <v>2.739352958081575e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.05392366951729587</v>
+        <v>0.01091679149313072</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.03081688535389461</v>
+        <v>0.0005554881318438001</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.75256702590711e-07</v>
+        <v>4.898621846071599e-09</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.821520872053216e-05</v>
+        <v>0.007495471391112088</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.003986891931956863</v>
+        <v>6.207884446592823e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.007142827207494257</v>
+        <v>0.0003174247498145252</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01309152611197628</v>
+        <v>5.840211393776406e-06</v>
       </c>
       <c r="AP10" t="n">
-        <v>4.986054404377374e-07</v>
+        <v>3.326186164377478e-06</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0001620753728121596</v>
+        <v>4.142006817061795e-06</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0003562544967507288</v>
+        <v>3.232499045130352e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0007169174262268008</v>
+        <v>2.304617814432489e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.01065102306271036</v>
+        <v>1.376252943261023e-08</v>
       </c>
       <c r="AU10" t="n">
-        <v>4.482963039476244e-05</v>
+        <v>1.817327715272745e-06</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.113680425012418</v>
+        <v>0.0002642391469163746</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.433360181502574e-09</v>
+        <v>1.529949202728026e-08</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0003574945704473829</v>
+        <v>0.0003570653302212287</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.00860729540557415</v>
+        <v>0.0003049059642493929</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.03269862165181357</v>
+        <v>0.0003103176107373555</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.005955871745318937</v>
+        <v>0.0005351571173592328</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0001812603016666679</v>
+        <v>1.602826687403826e-06</v>
       </c>
       <c r="BC10" t="n">
-        <v>6.347998532504098e-06</v>
+        <v>0.0001735601068450705</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.771360232892697e-09</v>
+        <v>1.331930041843941e-05</v>
       </c>
       <c r="BE10" t="n">
-        <v>6.89373788743517e-06</v>
+        <v>9.73808424652659e-06</v>
       </c>
       <c r="BF10" t="n">
-        <v>6.776631987025753e-05</v>
+        <v>3.508668468974308e-06</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.367992338858907e-05</v>
+        <v>8.836904416318302e-06</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.0004085533650548235</v>
+        <v>7.737992922598525e-05</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0104285844043955</v>
+        <v>2.014329638973143e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.844927354184529e-06</v>
+        <v>6.049295491001733e-08</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.02116029475960097</v>
+        <v>0.0007881619352496083</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.001913471566349949</v>
+        <v>4.35908873981696e-05</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.325698667904289e-05</v>
+        <v>8.726277738142244e-06</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0003864246052735575</v>
+        <v>0.000541190314139403</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.02719686397139489</v>
+        <v>0.0006206672269158642</v>
       </c>
       <c r="BP10" t="n">
-        <v>9.965391500387495e-06</v>
+        <v>1.420572661969972e-06</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.000824312729689486</v>
+        <v>0.001506376683330552</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.03265367811185952</v>
+        <v>0.002273247563575565</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.001150524984459669</v>
+        <v>0.001066390171105749</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.3923485615286499</v>
+        <v>0.0009550236248373781</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.3923485615286499</v>
+        <v>0.9535152199999209</v>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea</t>
+          <t>s__Prevotella sp003447235</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea(reject)</t>
+          <t>s__Prevotella sp003447235</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.234085846725142e-08</v>
+        <v>7.459241540812483e-09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001695323690132826</v>
+        <v>0.001075124866240228</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002242646781472816</v>
+        <v>0.002755356956573417</v>
       </c>
       <c r="E11" t="n">
-        <v>1.039915190172236e-05</v>
+        <v>4.840923963602527e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006389342100919383</v>
+        <v>0.0006433085539209553</v>
       </c>
       <c r="G11" t="n">
-        <v>9.307602339141893e-05</v>
+        <v>9.744319724299236e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>5.812124722428192e-06</v>
+        <v>5.067089128813342e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>1.419310109644434e-06</v>
+        <v>8.985977451343054e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>2.942740749670244e-10</v>
+        <v>7.216923791447478e-10</v>
       </c>
       <c r="K11" t="n">
-        <v>1.115562406662192e-05</v>
+        <v>1.278471586461512e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>3.511912033382207e-05</v>
+        <v>4.519584392380827e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>1.307219796850429e-06</v>
+        <v>4.841091104017015e-07</v>
       </c>
       <c r="N11" t="n">
-        <v>2.220588382844808e-14</v>
+        <v>2.220504223267916e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0005554609788816797</v>
+        <v>0.0004622434169519186</v>
       </c>
       <c r="P11" t="n">
-        <v>7.705113394480018e-05</v>
+        <v>1.657601825140786e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.831005651824716e-06</v>
+        <v>1.860186792463764e-06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.228633339943631e-07</v>
+        <v>2.076007000249763e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>1.415436905933131e-05</v>
+        <v>1.410503814132012e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>2.973924143275403e-06</v>
+        <v>2.111473838579996e-06</v>
       </c>
       <c r="U11" t="n">
-        <v>8.621730519256505e-05</v>
+        <v>0.001240480539845553</v>
       </c>
       <c r="V11" t="n">
-        <v>3.801606424819868e-08</v>
+        <v>3.934222804253236e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0005545910062278258</v>
+        <v>0.0007407983696973837</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0002343446447037547</v>
+        <v>0.008628408462948396</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0008674910347295673</v>
+        <v>0.002865497146601746</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002017711400637473</v>
+        <v>0.002577838709931684</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9535152199999209</v>
+        <v>0.9481729062694682</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.643313060919733e-05</v>
+        <v>6.412662927671005e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001239711320416099</v>
+        <v>0.0001238112139970371</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0008002344000278865</v>
+        <v>0.0003102292783683447</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.005169797824643676</v>
+        <v>0.001395123092266408</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.333702219514969e-06</v>
+        <v>6.410352265938698e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0006922670110507615</v>
+        <v>3.153537044766307e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.739352958081575e-05</v>
+        <v>4.572195426343213e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01091679149313072</v>
+        <v>0.007917318201698349</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0005554881318438001</v>
+        <v>0.0008828465165944115</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.898621846071599e-09</v>
+        <v>6.23164783182207e-09</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.007495471391112088</v>
+        <v>0.00982418990767191</v>
       </c>
       <c r="AM11" t="n">
-        <v>6.207884446592823e-05</v>
+        <v>5.44664092482152e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0003174247498145252</v>
+        <v>0.0001952222003163374</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.840211393776406e-06</v>
+        <v>2.508468146942203e-06</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.326186164377478e-06</v>
+        <v>3.616273221887879e-06</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.142006817061795e-06</v>
+        <v>1.519837639520855e-06</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.232499045130352e-05</v>
+        <v>7.5768516159316e-06</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.304617814432489e-05</v>
+        <v>6.906424086627298e-06</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.376252943261023e-08</v>
+        <v>1.675651845620887e-08</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.817327715272745e-06</v>
+        <v>5.999382874402534e-08</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0002642391469163746</v>
+        <v>0.0001803911550316175</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.529949202728026e-08</v>
+        <v>7.185104919864378e-09</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0003570653302212287</v>
+        <v>0.0005443633616713706</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0003049059642493929</v>
+        <v>0.0003685546450882834</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0003103176107373555</v>
+        <v>0.000218485421207555</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0005351571173592328</v>
+        <v>0.001423599888200323</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.602826687403826e-06</v>
+        <v>3.434457621871756e-06</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0001735601068450705</v>
+        <v>0.0003576859639228798</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.331930041843941e-05</v>
+        <v>4.595710239160232e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>9.73808424652659e-06</v>
+        <v>1.606019210837332e-06</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.508668468974308e-06</v>
+        <v>2.100460795655213e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>8.836904416318302e-06</v>
+        <v>1.532015793995665e-06</v>
       </c>
       <c r="BH11" t="n">
-        <v>7.737992922598525e-05</v>
+        <v>4.247110238269484e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.014329638973143e-05</v>
+        <v>3.722121460253457e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>6.049295491001733e-08</v>
+        <v>6.974902057933062e-08</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0007881619352496083</v>
+        <v>0.0006788993579761074</v>
       </c>
       <c r="BL11" t="n">
-        <v>4.35908873981696e-05</v>
+        <v>7.702084554082155e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>8.726277738142244e-06</v>
+        <v>0.0001927847993488653</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.000541190314139403</v>
+        <v>0.0004289997513253879</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0006206672269158642</v>
+        <v>0.0004301186811312454</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.420572661969972e-06</v>
+        <v>1.422626836554183e-06</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.001506376683330552</v>
+        <v>0.0008938285198587934</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.002273247563575565</v>
+        <v>0.002519228161470712</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.001066390171105749</v>
+        <v>7.473708203482723e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0009550236248373781</v>
+        <v>0.001234139312867763</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.9535152199999209</v>
+        <v>0.9481729062694682</v>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
@@ -3144,1622 +3144,1622 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.459241540812483e-09</v>
+        <v>1.305967363432336e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001075124866240228</v>
+        <v>0.0005404090315424006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002755356956573417</v>
+        <v>0.003374019479316255</v>
       </c>
       <c r="E12" t="n">
-        <v>4.840923963602527e-05</v>
+        <v>0.0005272202304451791</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0006433085539209553</v>
+        <v>5.649087584298985e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>9.744319724299236e-05</v>
+        <v>1.775732941881214e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>5.067089128813342e-07</v>
+        <v>4.119617509632179e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>8.985977451343054e-07</v>
+        <v>0.00116278576865905</v>
       </c>
       <c r="J12" t="n">
-        <v>7.216923791447478e-10</v>
+        <v>4.207990347093812e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>1.278471586461512e-07</v>
+        <v>2.270471585720447e-09</v>
       </c>
       <c r="L12" t="n">
-        <v>4.519584392380827e-06</v>
+        <v>0.0001952962213327764</v>
       </c>
       <c r="M12" t="n">
-        <v>4.841091104017015e-07</v>
+        <v>0.9236147915810503</v>
       </c>
       <c r="N12" t="n">
-        <v>2.220504223267916e-14</v>
+        <v>2.220815145108012e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0004622434169519186</v>
+        <v>0.002159469643707336</v>
       </c>
       <c r="P12" t="n">
-        <v>1.657601825140786e-05</v>
+        <v>1.022732627285027e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.860186792463764e-06</v>
+        <v>0.001459730717995035</v>
       </c>
       <c r="R12" t="n">
-        <v>2.076007000249763e-07</v>
+        <v>1.19346721591887e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.410503814132012e-05</v>
+        <v>8.457682173755956e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>2.111473838579996e-06</v>
+        <v>0.0001296241711646542</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001240480539845553</v>
+        <v>5.530649735746354e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>3.934222804253236e-09</v>
+        <v>1.847317875308606e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0007407983696973837</v>
+        <v>1.207663222427908e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>0.008628408462948396</v>
+        <v>1.552842386880582e-07</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.002865497146601746</v>
+        <v>0.001041018177634708</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002577838709931684</v>
+        <v>0.003725799544062327</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9481729062694682</v>
+        <v>5.481358567409464e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.412662927671005e-05</v>
+        <v>7.788926040547128e-08</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0001238112139970371</v>
+        <v>0.0002679711481887907</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0003102292783683447</v>
+        <v>0.0002450503831594934</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.001395123092266408</v>
+        <v>0.0009455807177258255</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.410352265938698e-06</v>
+        <v>6.356078720815813e-08</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.153537044766307e-05</v>
+        <v>4.521706750586268e-06</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.572195426343213e-05</v>
+        <v>6.847769173241228e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.007917318201698349</v>
+        <v>0.02769344255461377</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0008828465165944115</v>
+        <v>0.003161500366009185</v>
       </c>
       <c r="AK12" t="n">
-        <v>6.23164783182207e-09</v>
+        <v>2.0453847650555e-07</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.00982418990767191</v>
+        <v>4.265620557737895e-09</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.44664092482152e-05</v>
+        <v>6.005644814930751e-06</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0001952222003163374</v>
+        <v>0.0002421528623682375</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.508468146942203e-06</v>
+        <v>5.78619481515013e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.616273221887879e-06</v>
+        <v>1.57886023984961e-07</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.519837639520855e-06</v>
+        <v>9.004882599714391e-05</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.5768516159316e-06</v>
+        <v>9.004561770098688e-06</v>
       </c>
       <c r="AS12" t="n">
-        <v>6.906424086627298e-06</v>
+        <v>3.061917202155815e-07</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.675651845620887e-08</v>
+        <v>2.246261631285861e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.999382874402534e-08</v>
+        <v>1.166181303427309e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0001803911550316175</v>
+        <v>0.002604811907738799</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.185104919864378e-09</v>
+        <v>1.952270176874582e-06</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0005443633616713706</v>
+        <v>0.000837267803289763</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0003685546450882834</v>
+        <v>0.007022146142891149</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.000218485421207555</v>
+        <v>0.0009367269866898229</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.001423599888200323</v>
+        <v>0.004874975453905714</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.434457621871756e-06</v>
+        <v>2.495570339516007e-07</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0003576859639228798</v>
+        <v>3.831539644804705e-07</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.595710239160232e-05</v>
+        <v>5.336629421246636e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.606019210837332e-06</v>
+        <v>8.775918278146993e-06</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.100460795655213e-05</v>
+        <v>0.000591773115684429</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.532015793995665e-06</v>
+        <v>8.46429916326126e-07</v>
       </c>
       <c r="BH12" t="n">
-        <v>4.247110238269484e-05</v>
+        <v>0.0003899455182225129</v>
       </c>
       <c r="BI12" t="n">
-        <v>3.722121460253457e-05</v>
+        <v>9.917298313830098e-06</v>
       </c>
       <c r="BJ12" t="n">
-        <v>6.974902057933062e-08</v>
+        <v>0.003505864806433808</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0006788993579761074</v>
+        <v>0.0003054226204339364</v>
       </c>
       <c r="BL12" t="n">
-        <v>7.702084554082155e-05</v>
+        <v>4.26640745357799e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0001927847993488653</v>
+        <v>6.804364860587823e-07</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.0004289997513253879</v>
+        <v>2.643087252623375e-05</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0004301186811312454</v>
+        <v>0.0001371775913912772</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.422626836554183e-06</v>
+        <v>1.607189024670636e-07</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0008938285198587934</v>
+        <v>0.004175625518480932</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.002519228161470712</v>
+        <v>0.0009233563572743234</v>
       </c>
       <c r="BS12" t="n">
-        <v>7.473708203482723e-05</v>
+        <v>2.419361880270862e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.001234139312867763</v>
+        <v>0.002545912672130559</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.9481729062694682</v>
+        <v>0.9236147915810503</v>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>s__Prevotella sp003447235</t>
+          <t>s__Prevotella sp000434975</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>s__Prevotella sp003447235</t>
+          <t>s__Prevotella sp000434975</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.305967363432336e-07</v>
+        <v>0.0001626126835857398</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005404090315424006</v>
+        <v>0.002901573451532221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003374019479316255</v>
+        <v>0.0001586114895020313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005272202304451791</v>
+        <v>4.692950297888751e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>5.649087584298985e-07</v>
+        <v>1.006684422039855e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>1.775732941881214e-05</v>
+        <v>9.820956315451298e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>4.119617509632179e-05</v>
+        <v>4.96508260628468e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00116278576865905</v>
+        <v>5.832322971235696e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>4.207990347093812e-09</v>
+        <v>2.846827278531007e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>2.270471585720447e-09</v>
+        <v>9.878476506084108e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001952962213327764</v>
+        <v>4.400529923216149e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9236147915810503</v>
+        <v>0.00422939954753751</v>
       </c>
       <c r="N13" t="n">
-        <v>2.220815145108012e-14</v>
+        <v>2.221107714470783e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002159469643707336</v>
+        <v>0.0001165790234210596</v>
       </c>
       <c r="P13" t="n">
-        <v>1.022732627285027e-05</v>
+        <v>0.0001047947584445732</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001459730717995035</v>
+        <v>0.001777913824770174</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19346721591887e-05</v>
+        <v>0.0003537723536880929</v>
       </c>
       <c r="S13" t="n">
-        <v>8.457682173755956e-09</v>
+        <v>0.0002634179438396549</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0001296241711646542</v>
+        <v>3.150817054042408e-07</v>
       </c>
       <c r="U13" t="n">
-        <v>5.530649735746354e-05</v>
+        <v>0.001033649914194087</v>
       </c>
       <c r="V13" t="n">
-        <v>1.847317875308606e-05</v>
+        <v>0.000438491984038934</v>
       </c>
       <c r="W13" t="n">
-        <v>1.207663222427908e-05</v>
+        <v>0.0001144147467185845</v>
       </c>
       <c r="X13" t="n">
-        <v>1.552842386880582e-07</v>
+        <v>0.001601725341082114</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001041018177634708</v>
+        <v>0.005586329321993321</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.003725799544062327</v>
+        <v>0.001562070104332812</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.481358567409464e-05</v>
+        <v>4.783513955674492e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.788926040547128e-08</v>
+        <v>0.9084408024826365</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0002679711481887907</v>
+        <v>0.0003365569011704924</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0002450503831594934</v>
+        <v>0.002570686691482071</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0009455807177258255</v>
+        <v>0.0007674047714031468</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.356078720815813e-08</v>
+        <v>0.0003465340799648111</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.521706750586268e-06</v>
+        <v>2.186074071953805e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.847769173241228e-05</v>
+        <v>0.000427266682771238</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.02769344255461377</v>
+        <v>0.00820629538981627</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.003161500366009185</v>
+        <v>0.003793501333861187</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.0453847650555e-07</v>
+        <v>5.750166539049788e-07</v>
       </c>
       <c r="AL13" t="n">
-        <v>4.265620557737895e-09</v>
+        <v>5.902640237738701e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>6.005644814930751e-06</v>
+        <v>7.857017446182502e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0002421528623682375</v>
+        <v>0.006676041292642708</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.78619481515013e-05</v>
+        <v>0.0003298607283397718</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.57886023984961e-07</v>
+        <v>3.382548739334717e-09</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9.004882599714391e-05</v>
+        <v>5.652784349233205e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>9.004561770098688e-06</v>
+        <v>9.58815855920699e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.061917202155815e-07</v>
+        <v>5.398368831527189e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.246261631285861e-05</v>
+        <v>0.0003393540503123304</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.166181303427309e-05</v>
+        <v>1.124291264168627e-05</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002604811907738799</v>
+        <v>0.002399425769818055</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.952270176874582e-06</v>
+        <v>2.46779688505642e-12</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.000837267803289763</v>
+        <v>0.0007412712694121171</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.007022146142891149</v>
+        <v>0.002497197905609976</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0009367269866898229</v>
+        <v>0.004461030167201297</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.004874975453905714</v>
+        <v>0.01315836560076878</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.495570339516007e-07</v>
+        <v>0.0002411059638575402</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.831539644804705e-07</v>
+        <v>5.747026930311449e-06</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.336629421246636e-05</v>
+        <v>1.08455559448827e-08</v>
       </c>
       <c r="BE13" t="n">
-        <v>8.775918278146993e-06</v>
+        <v>1.270123995258362e-08</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000591773115684429</v>
+        <v>1.43504565265024e-07</v>
       </c>
       <c r="BG13" t="n">
-        <v>8.46429916326126e-07</v>
+        <v>1.927532994206981e-06</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0003899455182225129</v>
+        <v>4.118671940021626e-05</v>
       </c>
       <c r="BI13" t="n">
-        <v>9.917298313830098e-06</v>
+        <v>0.00257403557449737</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.003505864806433808</v>
+        <v>5.98408777023985e-06</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0003054226204339364</v>
+        <v>0.004743832846327477</v>
       </c>
       <c r="BL13" t="n">
-        <v>4.26640745357799e-05</v>
+        <v>0.0002865998902427051</v>
       </c>
       <c r="BM13" t="n">
-        <v>6.804364860587823e-07</v>
+        <v>0.0003064521195029168</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.643087252623375e-05</v>
+        <v>4.106790172118208e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0001371775913912772</v>
+        <v>0.00305404430632153</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.607189024670636e-07</v>
+        <v>4.422286767677108e-06</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.004175625518480932</v>
+        <v>0.001187059207227503</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0009233563572743234</v>
+        <v>0.009359022973660175</v>
       </c>
       <c r="BS13" t="n">
-        <v>2.419361880270862e-05</v>
+        <v>0.0001041902016951842</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.002545912672130559</v>
+        <v>0.001403032308681017</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.9236147915810503</v>
+        <v>0.9084408024826365</v>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>s__Prevotella sp000434975</t>
+          <t>s__Prevotella sp900290275</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>s__Prevotella sp000434975</t>
+          <t>s__Prevotella sp900290275</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001626126835857398</v>
+        <v>2.346607422087912e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002901573451532221</v>
+        <v>0.005755552600762409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001586114895020313</v>
+        <v>0.04071412869032499</v>
       </c>
       <c r="E14" t="n">
-        <v>4.692950297888751e-05</v>
+        <v>0.0006029614942947766</v>
       </c>
       <c r="F14" t="n">
-        <v>1.006684422039855e-05</v>
+        <v>0.0117630665604186</v>
       </c>
       <c r="G14" t="n">
-        <v>9.820956315451298e-05</v>
+        <v>0.0001872148905111844</v>
       </c>
       <c r="H14" t="n">
-        <v>4.96508260628468e-05</v>
+        <v>0.0004899024180749363</v>
       </c>
       <c r="I14" t="n">
-        <v>5.832322971235696e-05</v>
+        <v>3.669141420114148e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.846827278531007e-07</v>
+        <v>2.391821511899598e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>9.878476506084108e-06</v>
+        <v>0.004861338189243638</v>
       </c>
       <c r="L14" t="n">
-        <v>4.400529923216149e-05</v>
+        <v>3.510459529450942e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00422939954753751</v>
+        <v>0.0003674626036254411</v>
       </c>
       <c r="N14" t="n">
-        <v>2.221107714470783e-14</v>
+        <v>2.858245124762435e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001165790234210596</v>
+        <v>0.01227458315688819</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001047947584445732</v>
+        <v>0.000193572074131458</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001777913824770174</v>
+        <v>2.507942166299938e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0003537723536880929</v>
+        <v>1.060922184223675e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0002634179438396549</v>
+        <v>0.05934450031620459</v>
       </c>
       <c r="T14" t="n">
-        <v>3.150817054042408e-07</v>
+        <v>1.183610538657808e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001033649914194087</v>
+        <v>0.001609163100553917</v>
       </c>
       <c r="V14" t="n">
-        <v>0.000438491984038934</v>
+        <v>0.002097643202521566</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0001144147467185845</v>
+        <v>0.001216971389637733</v>
       </c>
       <c r="X14" t="n">
-        <v>0.001601725341082114</v>
+        <v>0.09211114173445907</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005586329321993321</v>
+        <v>0.06647466923336447</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.001562070104332812</v>
+        <v>0.001050883747024099</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.783513955674492e-05</v>
+        <v>0.4839987393798565</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.9084408024826365</v>
+        <v>0.007055107953009758</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0003365569011704924</v>
+        <v>0.0009031794140621055</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.002570686691482071</v>
+        <v>0.042901849395617</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0007674047714031468</v>
+        <v>0.02463179113721325</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0003465340799648111</v>
+        <v>1.653489696658629e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.186074071953805e-05</v>
+        <v>0.0007025806162034883</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.000427266682771238</v>
+        <v>0.0004466838954010633</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.00820629538981627</v>
+        <v>0.0158152300449565</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.003793501333861187</v>
+        <v>0.02292782976381418</v>
       </c>
       <c r="AK14" t="n">
-        <v>5.750166539049788e-07</v>
+        <v>2.472330780349113e-07</v>
       </c>
       <c r="AL14" t="n">
-        <v>5.902640237738701e-05</v>
+        <v>0.01318737581156632</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.857017446182502e-05</v>
+        <v>0.002230485474306842</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.006676041292642708</v>
+        <v>0.003496003766219076</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0003298607283397718</v>
+        <v>0.0001846996886539261</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.382548739334717e-09</v>
+        <v>1.52612884612175e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>5.652784349233205e-05</v>
+        <v>0.0002677127829068293</v>
       </c>
       <c r="AR14" t="n">
-        <v>9.58815855920699e-05</v>
+        <v>0.0002686606719189337</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.398368831527189e-05</v>
+        <v>0.0001200836682006665</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.0003393540503123304</v>
+        <v>4.03122742503056e-06</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.124291264168627e-05</v>
+        <v>0.0002372789468314628</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.002399425769818055</v>
+        <v>0.00158758401063964</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.46779688505642e-12</v>
+        <v>2.008730399579452e-07</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0007412712694121171</v>
+        <v>0.000119208305073693</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.002497197905609976</v>
+        <v>0.005114816253086224</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.004461030167201297</v>
+        <v>0.007693333590351912</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.01315836560076878</v>
+        <v>0.005581961513962393</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.0002411059638575402</v>
+        <v>5.724770106987842e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>5.747026930311449e-06</v>
+        <v>0.0002478612397433394</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.08455559448827e-08</v>
+        <v>3.38194215568885e-07</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.270123995258362e-08</v>
+        <v>1.230583524583033e-06</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.43504565265024e-07</v>
+        <v>0.0002545045327367054</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.927532994206981e-06</v>
+        <v>0.0002032663424492793</v>
       </c>
       <c r="BH14" t="n">
-        <v>4.118671940021626e-05</v>
+        <v>0.003721768593261303</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.00257403557449737</v>
+        <v>0.000774431917259494</v>
       </c>
       <c r="BJ14" t="n">
-        <v>5.98408777023985e-06</v>
+        <v>2.859693881077936e-07</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.004743832846327477</v>
+        <v>0.006537401927295826</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0002865998902427051</v>
+        <v>0.000147648869580672</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0003064521195029168</v>
+        <v>0.0001380721541386655</v>
       </c>
       <c r="BN14" t="n">
-        <v>4.106790172118208e-05</v>
+        <v>0.002143854689395835</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.00305404430632153</v>
+        <v>0.004430937884535385</v>
       </c>
       <c r="BP14" t="n">
-        <v>4.422286767677108e-06</v>
+        <v>7.598706944691917e-07</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.001187059207227503</v>
+        <v>0.003676901755193738</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.009359022973660175</v>
+        <v>0.02979212517004833</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.0001041902016951842</v>
+        <v>0.0003322112004182856</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.001403032308681017</v>
+        <v>0.006855325873148289</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.9084408024826365</v>
+        <v>0.4839987393798565</v>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>s__Prevotella sp900290275</t>
+          <t>s__Prevotella sp003447235</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>s__Prevotella sp900290275</t>
+          <t>s__Prevotella sp003447235(reject)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.346607422087912e-06</v>
+        <v>1.67699365665969e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005755552600762409</v>
+        <v>0.001327340324569961</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04071412869032499</v>
+        <v>0.01475329849907893</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0006029614942947766</v>
+        <v>0.001719442572595707</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0117630665604186</v>
+        <v>1.834166577937131e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001872148905111844</v>
+        <v>7.414876085047667e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0004899024180749363</v>
+        <v>0.004974612933712244</v>
       </c>
       <c r="I15" t="n">
-        <v>3.669141420114148e-05</v>
+        <v>5.332082723545196e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.391821511899598e-09</v>
+        <v>3.89689756114408e-09</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004861338189243638</v>
+        <v>7.99349710307459e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>3.510459529450942e-05</v>
+        <v>1.140809889340267e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0003674626036254411</v>
+        <v>0.01943697128442072</v>
       </c>
       <c r="N15" t="n">
-        <v>2.858245124762435e-14</v>
+        <v>2.331586762910217e-14</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01227458315688819</v>
+        <v>0.003871970503519873</v>
       </c>
       <c r="P15" t="n">
-        <v>0.000193572074131458</v>
+        <v>2.402765778606346e-06</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.507942166299938e-05</v>
+        <v>0.0002601420644740948</v>
       </c>
       <c r="R15" t="n">
-        <v>1.060922184223675e-06</v>
+        <v>0.0005022194910048713</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05934450031620459</v>
+        <v>2.874850598943836e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.183610538657808e-05</v>
+        <v>1.578784004178036e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001609163100553917</v>
+        <v>0.01188674604542114</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002097643202521566</v>
+        <v>1.648185092538235e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001216971389637733</v>
+        <v>4.728498439316969e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09211114173445907</v>
+        <v>3.617344200217181e-06</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.06647466923336447</v>
+        <v>0.004864875667509955</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.001050883747024099</v>
+        <v>0.009219467104264899</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4839987393798565</v>
+        <v>0.000198565175480993</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.007055107953009758</v>
+        <v>4.43871971881373e-06</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0009031794140621055</v>
+        <v>0.000234153850321044</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.042901849395617</v>
+        <v>0.003363754656747862</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02463179113721325</v>
+        <v>0.0009745096859497103</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.653489696658629e-05</v>
+        <v>7.955893049452656e-08</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0007025806162034883</v>
+        <v>3.860235282074506e-06</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0004466838954010633</v>
+        <v>0.0001144247726574156</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0158152300449565</v>
+        <v>0.0164483830545686</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.02292782976381418</v>
+        <v>0.02101052886407294</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.472330780349113e-07</v>
+        <v>1.249757422860872e-07</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.01318737581156632</v>
+        <v>2.291034972043119e-07</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.002230485474306842</v>
+        <v>6.452823103008962e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003496003766219076</v>
+        <v>0.0004749793887164385</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0001846996886539261</v>
+        <v>8.623252954878451e-05</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.52612884612175e-05</v>
+        <v>9.513002774049891e-08</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0002677127829068293</v>
+        <v>0.0007242695409633992</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0002686606719189337</v>
+        <v>7.480094954672136e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0001200836682006665</v>
+        <v>1.134220991243387e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.03122742503056e-06</v>
+        <v>6.83348318110228e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0002372789468314628</v>
+        <v>5.246883177692315e-06</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.00158758401063964</v>
+        <v>0.01382165088509507</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.008730399579452e-07</v>
+        <v>2.488038895602616e-07</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.000119208305073693</v>
+        <v>0.004842180899147298</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.005114816253086224</v>
+        <v>0.0134175862735773</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.007693333590351912</v>
+        <v>0.003117392434438597</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.005581961513962393</v>
+        <v>0.03332380441614489</v>
       </c>
       <c r="BB15" t="n">
-        <v>5.724770106987842e-06</v>
+        <v>9.687337147209338e-06</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0002478612397433394</v>
+        <v>2.502254985344372e-06</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.38194215568885e-07</v>
+        <v>0.0002652714955206853</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.230583524583033e-06</v>
+        <v>1.950379218740764e-08</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0002545045327367054</v>
+        <v>0.0001245197660308589</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.0002032663424492793</v>
+        <v>6.488560906730659e-07</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003721768593261303</v>
+        <v>5.339807389415163e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.000774431917259494</v>
+        <v>2.44175066035515e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.859693881077936e-07</v>
+        <v>0.0001926146036992542</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.006537401927295826</v>
+        <v>0.0004461353745673926</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.000147648869580672</v>
+        <v>0.0002920703259887388</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0001380721541386655</v>
+        <v>7.817402233633206e-06</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.002143854689395835</v>
+        <v>0.000399383532131282</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.004430937884535385</v>
+        <v>0.0004327968877812103</v>
       </c>
       <c r="BP15" t="n">
-        <v>7.598706944691917e-07</v>
+        <v>2.248514504098014e-07</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.003676901755193738</v>
+        <v>0.004731179156093739</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.02979212517004833</v>
+        <v>0.004714975685766014</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0003322112004182856</v>
+        <v>1.763391286310225e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.006855325873148289</v>
+        <v>0.8028408399533709</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.4839987393798565</v>
+        <v>0.8028408399533709</v>
       </c>
       <c r="BV15" t="inlineStr">
         <is>
-          <t>s__Prevotella sp003447235</t>
+          <t>s__Prevotella stercorea</t>
         </is>
       </c>
       <c r="BW15" t="inlineStr">
         <is>
-          <t>s__Prevotella sp003447235(reject)</t>
+          <t>s__Prevotella stercorea</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.67699365665969e-06</v>
+        <v>2.590966163517201e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001327340324569961</v>
+        <v>0.005173722394231841</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01475329849907893</v>
+        <v>0.1067732072672823</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001719442572595707</v>
+        <v>0.002065441105500582</v>
       </c>
       <c r="F16" t="n">
-        <v>1.834166577937131e-07</v>
+        <v>0.0005746852784120588</v>
       </c>
       <c r="G16" t="n">
-        <v>7.414876085047667e-05</v>
+        <v>0.001180248225172121</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004974612933712244</v>
+        <v>0.04981376848184629</v>
       </c>
       <c r="I16" t="n">
-        <v>5.332082723545196e-05</v>
+        <v>0.003591352223746771</v>
       </c>
       <c r="J16" t="n">
-        <v>3.89689756114408e-09</v>
+        <v>1.208539697012889e-10</v>
       </c>
       <c r="K16" t="n">
-        <v>7.99349710307459e-07</v>
+        <v>4.411628675520916e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.140809889340267e-05</v>
+        <v>0.0002830131968847844</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01943697128442072</v>
+        <v>0.0003161855976898435</v>
       </c>
       <c r="N16" t="n">
-        <v>2.331586762910217e-14</v>
+        <v>3.737375596595487e-14</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003871970503519873</v>
+        <v>0.001119529597728878</v>
       </c>
       <c r="P16" t="n">
-        <v>2.402765778606346e-06</v>
+        <v>2.332635582202582e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0002601420644740948</v>
+        <v>0.001219958496066273</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0005022194910048713</v>
+        <v>2.159474429266825e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>2.874850598943836e-05</v>
+        <v>0.0001854638374446379</v>
       </c>
       <c r="T16" t="n">
-        <v>1.578784004178036e-05</v>
+        <v>2.895032090599727e-06</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01188674604542114</v>
+        <v>8.391298617747354e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.648185092538235e-06</v>
+        <v>0.6172658141963008</v>
       </c>
       <c r="W16" t="n">
-        <v>4.728498439316969e-05</v>
+        <v>6.229685655012453e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>3.617344200217181e-06</v>
+        <v>4.576651847916755e-09</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.004864875667509955</v>
+        <v>0.002451085455554126</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.009219467104264899</v>
+        <v>0.008446978424071343</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.000198565175480993</v>
+        <v>0.003627617190574312</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.43871971881373e-06</v>
+        <v>8.798241073240796e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.000234153850321044</v>
+        <v>0.001236306539648954</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003363754656747862</v>
+        <v>0.03601338561767912</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0009745096859497103</v>
+        <v>0.005114569340102283</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.955893049452656e-08</v>
+        <v>5.987338636900756e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.860235282074506e-06</v>
+        <v>0.003665150830467006</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0001144247726574156</v>
+        <v>0.0002545201303895553</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0164483830545686</v>
+        <v>0.01661920195143063</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.02101052886407294</v>
+        <v>0.003143167095337809</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.249757422860872e-07</v>
+        <v>7.267038895819052e-06</v>
       </c>
       <c r="AL16" t="n">
-        <v>2.291034972043119e-07</v>
+        <v>6.967050328440406e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>6.452823103008962e-05</v>
+        <v>0.002690141632174491</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0004749793887164385</v>
+        <v>0.00699336718005796</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.623252954878451e-05</v>
+        <v>0.0002786524780034654</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.513002774049891e-08</v>
+        <v>7.268400210928191e-07</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0007242695409633992</v>
+        <v>0.0006912082098044487</v>
       </c>
       <c r="AR16" t="n">
-        <v>7.480094954672136e-05</v>
+        <v>2.37080363023232e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.134220991243387e-05</v>
+        <v>7.096805483118815e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.83348318110228e-05</v>
+        <v>0.002748407759531903</v>
       </c>
       <c r="AU16" t="n">
-        <v>5.246883177692315e-06</v>
+        <v>0.01078140519194455</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.01382165088509507</v>
+        <v>0.003398150633524131</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.488038895602616e-07</v>
+        <v>0.0006479758708279476</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.004842180899147298</v>
+        <v>0.0001132702243062614</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.0134175862735773</v>
+        <v>0.01328755602106044</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.003117392434438597</v>
+        <v>0.00709459010584854</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.03332380441614489</v>
+        <v>0.02024695127065193</v>
       </c>
       <c r="BB16" t="n">
-        <v>9.687337147209338e-06</v>
+        <v>2.408859996449096e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.502254985344372e-06</v>
+        <v>0.0002766140969653565</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0002652714955206853</v>
+        <v>2.14282053963068e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.950379218740764e-08</v>
+        <v>1.911582452065321e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.0001245197660308589</v>
+        <v>2.174675771269617e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>6.488560906730659e-07</v>
+        <v>0.001426312848794095</v>
       </c>
       <c r="BH16" t="n">
-        <v>5.339807389415163e-05</v>
+        <v>0.0001324857993418038</v>
       </c>
       <c r="BI16" t="n">
-        <v>2.44175066035515e-05</v>
+        <v>0.003335437527122292</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0001926146036992542</v>
+        <v>3.202889806053346e-06</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0004461353745673926</v>
+        <v>0.009011500728300243</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0002920703259887388</v>
+        <v>0.0001131269338052901</v>
       </c>
       <c r="BM16" t="n">
-        <v>7.817402233633206e-06</v>
+        <v>1.492320585486458e-06</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.000399383532131282</v>
+        <v>0.0002664486731481515</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.0004327968877812103</v>
+        <v>0.002046637774522144</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.248514504098014e-07</v>
+        <v>7.615732637760902e-06</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.004731179156093739</v>
+        <v>0.01782355777833501</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.004714975685766014</v>
+        <v>0.008549459375705807</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.763391286310225e-05</v>
+        <v>0.0006462468849804981</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.8028408399533709</v>
+        <v>0.01665868174651325</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.8028408399533709</v>
+        <v>0.6172658141963008</v>
       </c>
       <c r="BV16" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea</t>
+          <t>s__Prevotella sp002265625</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>s__Prevotella stercorea</t>
+          <t>s__Prevotella sp002265625</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.590966163517201e-05</v>
+        <v>1.170516405951086e-08</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005173722394231841</v>
+        <v>0.0009112652756740307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1067732072672823</v>
+        <v>0.006500874491484651</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002065441105500582</v>
+        <v>0.0001038183273599476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0005746852784120588</v>
+        <v>0.0003331513784471775</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001180248225172121</v>
+        <v>0.0001149984444806253</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04981376848184629</v>
+        <v>7.027765223969409e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003591352223746771</v>
+        <v>1.18315985760049e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.208539697012889e-10</v>
+        <v>9.364854968591163e-11</v>
       </c>
       <c r="K17" t="n">
-        <v>4.411628675520916e-05</v>
+        <v>2.476683028180164e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002830131968847844</v>
+        <v>1.703912360838246e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003161855976898435</v>
+        <v>1.082523084135834e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.737375596595487e-14</v>
+        <v>2.22059875328564e-14</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001119529597728878</v>
+        <v>0.001682366432236953</v>
       </c>
       <c r="P17" t="n">
-        <v>2.332635582202582e-05</v>
+        <v>2.455224965795587e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001219958496066273</v>
+        <v>6.323476065092058e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>2.159474429266825e-06</v>
+        <v>1.993793600447323e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001854638374446379</v>
+        <v>0.0003160335691695605</v>
       </c>
       <c r="T17" t="n">
-        <v>2.895032090599727e-06</v>
+        <v>4.108138109844793e-07</v>
       </c>
       <c r="U17" t="n">
-        <v>8.391298617747354e-05</v>
+        <v>0.004716698066846155</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6172658141963008</v>
+        <v>1.68146182814852e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>6.229685655012453e-06</v>
+        <v>8.700688488029819e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>4.576651847916755e-09</v>
+        <v>0.001492460743822246</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.002451085455554126</v>
+        <v>0.01191833880706868</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.008446978424071343</v>
+        <v>0.0004525811819526332</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003627617190574312</v>
+        <v>0.9317929418448665</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.798241073240796e-05</v>
+        <v>0.0002428957084008852</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.001236306539648954</v>
+        <v>0.0005794909808981556</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.03601338561767912</v>
+        <v>0.003626697756745327</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.005114569340102283</v>
+        <v>0.003855947621647161</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.987338636900756e-05</v>
+        <v>1.231968671477777e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.003665150830467006</v>
+        <v>6.268409083809788e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0002545201303895553</v>
+        <v>4.217242174701406e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.01661920195143063</v>
+        <v>0.01128543066256579</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.003143167095337809</v>
+        <v>0.002502412314909888</v>
       </c>
       <c r="AK17" t="n">
-        <v>7.267038895819052e-06</v>
+        <v>9.546650654904615e-10</v>
       </c>
       <c r="AL17" t="n">
-        <v>6.967050328440406e-05</v>
+        <v>0.001200693112543817</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.002690141632174491</v>
+        <v>0.0004135553838186284</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.00699336718005796</v>
+        <v>0.0006824997480782834</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0002786524780034654</v>
+        <v>1.400664764457236e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>7.268400210928191e-07</v>
+        <v>6.931965137105441e-07</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0006912082098044487</v>
+        <v>5.511687378850492e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.37080363023232e-05</v>
+        <v>1.952781424212072e-05</v>
       </c>
       <c r="AS17" t="n">
-        <v>7.096805483118815e-05</v>
+        <v>0.0002856353473466029</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.002748407759531903</v>
+        <v>2.444894414776185e-08</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.01078140519194455</v>
+        <v>1.535760496889963e-05</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.003398150633524131</v>
+        <v>0.001520121077471715</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0006479758708279476</v>
+        <v>1.156548168939755e-08</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0001132702243062614</v>
+        <v>0.001850072052826648</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.01328755602106044</v>
+        <v>0.001424717241221651</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.00709459010584854</v>
+        <v>0.000737250292543238</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.02024695127065193</v>
+        <v>0.001285240201262606</v>
       </c>
       <c r="BB17" t="n">
-        <v>2.408859996449096e-05</v>
+        <v>5.815751611835699e-06</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0002766140969653565</v>
+        <v>0.0002985950364282384</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.14282053963068e-05</v>
+        <v>1.372725687222469e-05</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.911582452065321e-05</v>
+        <v>6.569914771685585e-07</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.174675771269617e-05</v>
+        <v>2.291878475666892e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.001426312848794095</v>
+        <v>1.953360989858818e-06</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0001324857993418038</v>
+        <v>1.607396123525207e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.003335437527122292</v>
+        <v>2.087793307324159e-05</v>
       </c>
       <c r="BJ17" t="n">
-        <v>3.202889806053346e-06</v>
+        <v>4.55348615155728e-07</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.009011500728300243</v>
+        <v>0.0004905267247142911</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0001131269338052901</v>
+        <v>1.73380126956965e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.492320585486458e-06</v>
+        <v>8.285425807673637e-06</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.0002664486731481515</v>
+        <v>0.0002622473595975692</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.002046637774522144</v>
+        <v>0.000819260936219733</v>
       </c>
       <c r="BP17" t="n">
-        <v>7.615732637760902e-06</v>
+        <v>2.37866087856587e-07</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.01782355777833501</v>
+        <v>0.001801555923280952</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.008549459375705807</v>
+        <v>0.002824277771829881</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.0006462468849804981</v>
+        <v>0.0001075673560793664</v>
       </c>
       <c r="BT17" t="n">
-        <v>0.01665868174651325</v>
+        <v>0.001056006976713488</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.6172658141963008</v>
+        <v>0.9317929418448665</v>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>s__Prevotella sp002265625</t>
+          <t>s__Prevotella sp003447235</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>s__Prevotella sp002265625</t>
+          <t>s__Prevotella sp003447235</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.170516405951086e-08</v>
+        <v>7.039180006039979e-08</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0009112652756740307</v>
+        <v>0.00201313013238528</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006500874491484651</v>
+        <v>0.002193106757306395</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001038183273599476</v>
+        <v>0.000154222348613253</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003331513784471775</v>
+        <v>0.001508818449332479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001149984444806253</v>
+        <v>3.462735653019297e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>7.027765223969409e-05</v>
+        <v>1.78913016694558e-06</v>
       </c>
       <c r="I18" t="n">
-        <v>1.18315985760049e-05</v>
+        <v>9.787029884722641e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>9.364854968591163e-11</v>
+        <v>7.456076538015901e-09</v>
       </c>
       <c r="K18" t="n">
-        <v>2.476683028180164e-06</v>
+        <v>0.0001118623530725916</v>
       </c>
       <c r="L18" t="n">
-        <v>1.703912360838246e-05</v>
+        <v>3.227121662182934e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>1.082523084135834e-05</v>
+        <v>1.032253706530419e-07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.22059875328564e-14</v>
+        <v>2.220825699751737e-14</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001682366432236953</v>
+        <v>0.0005083677286748781</v>
       </c>
       <c r="P18" t="n">
-        <v>2.455224965795587e-05</v>
+        <v>1.748264240841575e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.323476065092058e-06</v>
+        <v>2.653833186559477e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.993793600447323e-07</v>
+        <v>6.061454175665752e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0003160335691695605</v>
+        <v>2.100430742388865e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>4.108138109844793e-07</v>
+        <v>6.024534080670342e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004716698066846155</v>
+        <v>0.002415948677607378</v>
       </c>
       <c r="V18" t="n">
-        <v>1.68146182814852e-07</v>
+        <v>3.038760675844686e-09</v>
       </c>
       <c r="W18" t="n">
-        <v>8.700688488029819e-05</v>
+        <v>1.001655540870629e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.001492460743822246</v>
+        <v>0.0002455718327901776</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01191833880706868</v>
+        <v>0.001995114861875828</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0004525811819526332</v>
+        <v>0.003176486430830443</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9317929418448665</v>
+        <v>0.8975513192266645</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0002428957084008852</v>
+        <v>3.58640218645303e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0005794909808981556</v>
+        <v>0.002460079176501088</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.003626697756745327</v>
+        <v>0.0001592794563816339</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.003855947621647161</v>
+        <v>0.0004498866181416771</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.231968671477777e-05</v>
+        <v>3.653105034257599e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.268409083809788e-05</v>
+        <v>0.0001704562047938965</v>
       </c>
       <c r="AH18" t="n">
-        <v>4.217242174701406e-05</v>
+        <v>2.592161971466009e-05</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.01128543066256579</v>
+        <v>0.003569064620364648</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.002502412314909888</v>
+        <v>0.001792579887450114</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.546650654904615e-10</v>
+        <v>7.576406177489277e-09</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.001200693112543817</v>
+        <v>0.06090934898134844</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0004135553838186284</v>
+        <v>0.0002375345950623535</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0006824997480782834</v>
+        <v>0.000765302287955439</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.400664764457236e-05</v>
+        <v>2.162727787395637e-06</v>
       </c>
       <c r="AP18" t="n">
-        <v>6.931965137105441e-07</v>
+        <v>1.228079977629807e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.511687378850492e-06</v>
+        <v>9.314810325257002e-07</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.952781424212072e-05</v>
+        <v>5.559677022246723e-05</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.0002856353473466029</v>
+        <v>0.0001385385479281785</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.444894414776185e-08</v>
+        <v>2.077734035295989e-08</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.535760496889963e-05</v>
+        <v>1.203169686040525e-06</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.001520121077471715</v>
+        <v>0.0008125382512828732</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.156548168939755e-08</v>
+        <v>2.268767203433337e-08</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.001850072052826648</v>
+        <v>0.0002770254583021932</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.001424717241221651</v>
+        <v>0.0005135587874242212</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.000737250292543238</v>
+        <v>0.0002997779944341403</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.001285240201262606</v>
+        <v>0.00236194977738227</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.815751611835699e-06</v>
+        <v>1.337376661265925e-05</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0002985950364282384</v>
+        <v>0.0013151257417994</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.372725687222469e-05</v>
+        <v>8.672606684743668e-06</v>
       </c>
       <c r="BE18" t="n">
-        <v>6.569914771685585e-07</v>
+        <v>0.0008774002958692688</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.291878475666892e-05</v>
+        <v>0.0001346378601310772</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.953360989858818e-06</v>
+        <v>2.943221821054397e-06</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.607396123525207e-05</v>
+        <v>4.587533003244415e-05</v>
       </c>
       <c r="BI18" t="n">
-        <v>2.087793307324159e-05</v>
+        <v>1.845177457133448e-05</v>
       </c>
       <c r="BJ18" t="n">
-        <v>4.55348615155728e-07</v>
+        <v>2.181610824035342e-07</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0004905267247142911</v>
+        <v>0.0008464916107432852</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.73380126956965e-05</v>
+        <v>0.0002518202803755012</v>
       </c>
       <c r="BM18" t="n">
-        <v>8.285425807673637e-06</v>
+        <v>0.0003576120812686754</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0002622473595975692</v>
+        <v>0.002655442169232846</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.000819260936219733</v>
+        <v>0.0004735904058836359</v>
       </c>
       <c r="BP18" t="n">
-        <v>2.37866087856587e-07</v>
+        <v>0.000195836070379088</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.001801555923280952</v>
+        <v>0.001155295753133958</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.002824277771829881</v>
+        <v>0.002170827236302573</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0001075673560793664</v>
+        <v>0.0001578219027828514</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.001056006976713488</v>
+        <v>0.002166483935656159</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.9317929418448665</v>
+        <v>0.8975513192266645</v>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
@@ -4775,224 +4775,224 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.039180006039979e-08</v>
+        <v>4.216806636707123e-08</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00201313013238528</v>
+        <v>0.001760639884792014</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002193106757306395</v>
+        <v>0.000959888810533493</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000154222348613253</v>
+        <v>7.098182792233658e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001508818449332479</v>
+        <v>0.0003307705534368788</v>
       </c>
       <c r="G19" t="n">
-        <v>3.462735653019297e-05</v>
+        <v>5.217840220972749e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>1.78913016694558e-06</v>
+        <v>3.421888996618168e-06</v>
       </c>
       <c r="I19" t="n">
-        <v>9.787029884722641e-06</v>
+        <v>9.808018663040141e-07</v>
       </c>
       <c r="J19" t="n">
-        <v>7.456076538015901e-09</v>
+        <v>2.204172449177929e-09</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001118623530725916</v>
+        <v>0.000104582596300872</v>
       </c>
       <c r="L19" t="n">
-        <v>3.227121662182934e-05</v>
+        <v>5.856825475717769e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>1.032253706530419e-07</v>
+        <v>2.648063859601573e-07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.220825699751737e-14</v>
+        <v>2.220648068924511e-14</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0005083677286748781</v>
+        <v>0.0002594024724637631</v>
       </c>
       <c r="P19" t="n">
-        <v>1.748264240841575e-05</v>
+        <v>2.640076765430789e-06</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.653833186559477e-06</v>
+        <v>1.695202641060887e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>6.061454175665752e-07</v>
+        <v>1.417626849964085e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>2.100430742388865e-05</v>
+        <v>2.517928583367097e-06</v>
       </c>
       <c r="T19" t="n">
-        <v>6.024534080670342e-05</v>
+        <v>1.016076839445838e-05</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002415948677607378</v>
+        <v>0.001329506915118058</v>
       </c>
       <c r="V19" t="n">
-        <v>3.038760675844686e-09</v>
+        <v>1.941227154336364e-09</v>
       </c>
       <c r="W19" t="n">
-        <v>1.001655540870629e-05</v>
+        <v>2.284760167276203e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0002455718327901776</v>
+        <v>0.0002034596287412311</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.001995114861875828</v>
+        <v>0.001192640056816172</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.003176486430830443</v>
+        <v>0.00407972396580928</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.8975513192266645</v>
+        <v>0.9258248095882028</v>
       </c>
       <c r="AB19" t="n">
-        <v>3.58640218645303e-05</v>
+        <v>5.359561662159616e-06</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.002460079176501088</v>
+        <v>0.001204164632489514</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0001592794563816339</v>
+        <v>0.0005515650819966001</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0004498866181416771</v>
+        <v>0.004069036929650478</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.653105034257599e-05</v>
+        <v>1.233787659320703e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0001704562047938965</v>
+        <v>0.0002779570054218199</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.592161971466009e-05</v>
+        <v>7.537941130519422e-06</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.003569064620364648</v>
+        <v>0.005493164633993483</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.001792579887450114</v>
+        <v>0.002225918271202985</v>
       </c>
       <c r="AK19" t="n">
-        <v>7.576406177489277e-09</v>
+        <v>9.60301876730195e-09</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.06090934898134844</v>
+        <v>0.04033058233700174</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.0002375345950623535</v>
+        <v>5.000778592084483e-05</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.000765302287955439</v>
+        <v>0.0001702562387091894</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.162727787395637e-06</v>
+        <v>4.209220425096944e-06</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.228079977629807e-05</v>
+        <v>2.217227893623722e-06</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9.314810325257002e-07</v>
+        <v>3.493816260177718e-06</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.559677022246723e-05</v>
+        <v>0.0003427645568757841</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0001385385479281785</v>
+        <v>3.762389949825618e-05</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.077734035295989e-08</v>
+        <v>1.521810966524694e-08</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.203169686040525e-06</v>
+        <v>2.008320576272655e-08</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.0008125382512828732</v>
+        <v>0.0005291676879253769</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.268767203433337e-08</v>
+        <v>1.296030238279455e-07</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.0002770254583021932</v>
+        <v>0.0003812970109454095</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.0005135587874242212</v>
+        <v>0.0003628055419301177</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.0002997779944341403</v>
+        <v>0.0002829257152418167</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.00236194977738227</v>
+        <v>0.001818503834993515</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.337376661265925e-05</v>
+        <v>1.086212855794343e-06</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.0013151257417994</v>
+        <v>0.0004802198996748228</v>
       </c>
       <c r="BD19" t="n">
-        <v>8.672606684743668e-06</v>
+        <v>6.18539211753384e-06</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.0008774002958692688</v>
+        <v>1.698231251026306e-05</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.0001346378601310772</v>
+        <v>6.94750876750765e-06</v>
       </c>
       <c r="BG19" t="n">
-        <v>2.943221821054397e-06</v>
+        <v>5.572918434991916e-06</v>
       </c>
       <c r="BH19" t="n">
-        <v>4.587533003244415e-05</v>
+        <v>1.923832676343812e-05</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.845177457133448e-05</v>
+        <v>5.41387363910726e-06</v>
       </c>
       <c r="BJ19" t="n">
-        <v>2.181610824035342e-07</v>
+        <v>7.0662398186155e-08</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.0008464916107432852</v>
+        <v>0.0007430371005819527</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.0002518202803755012</v>
+        <v>7.722297206618582e-05</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.0003576120812686754</v>
+        <v>3.667793756673468e-05</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.002655442169232846</v>
+        <v>0.0004387034468741397</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.0004735904058836359</v>
+        <v>0.0003404131051719655</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.000195836070379088</v>
+        <v>1.190358324051121e-06</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.001155295753133958</v>
+        <v>0.0009381933227598796</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.002170827236302573</v>
+        <v>0.001962135501494791</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.0001578219027828514</v>
+        <v>8.50640959895108e-05</v>
       </c>
       <c r="BT19" t="n">
-        <v>0.002166483935656159</v>
+        <v>0.0005102038443457266</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.8975513192266645</v>
+        <v>0.9258248095882028</v>
       </c>
       <c r="BV19" t="inlineStr">
         <is>
@@ -5008,224 +5008,224 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.216806636707123e-08</v>
+        <v>6.433238592103488e-08</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001760639884792014</v>
+        <v>0.002129878057881845</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000959888810533493</v>
+        <v>0.0009845106994052252</v>
       </c>
       <c r="E20" t="n">
-        <v>7.098182792233658e-05</v>
+        <v>0.0006882181377989621</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0003307705534368788</v>
+        <v>0.0004744967544118494</v>
       </c>
       <c r="G20" t="n">
-        <v>5.217840220972749e-06</v>
+        <v>5.045112542490492e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>3.421888996618168e-06</v>
+        <v>2.113821671679892e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>9.808018663040141e-07</v>
+        <v>2.23336844372285e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>2.204172449177929e-09</v>
+        <v>6.924415922857171e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000104582596300872</v>
+        <v>2.486627239603366e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>5.856825475717769e-06</v>
+        <v>4.262913778307107e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>2.648063859601573e-07</v>
+        <v>1.964115645706449e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>2.220648068924511e-14</v>
+        <v>2.220546571965083e-14</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0002594024724637631</v>
+        <v>0.001277708634133438</v>
       </c>
       <c r="P20" t="n">
-        <v>2.640076765430789e-06</v>
+        <v>8.214788863809905e-06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.695202641060887e-06</v>
+        <v>6.452560419700115e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.417626849964085e-06</v>
+        <v>2.802153152373789e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>2.517928583367097e-06</v>
+        <v>6.926136295116381e-07</v>
       </c>
       <c r="T20" t="n">
-        <v>1.016076839445838e-05</v>
+        <v>3.826630084251515e-05</v>
       </c>
       <c r="U20" t="n">
-        <v>0.001329506915118058</v>
+        <v>0.0003910182429011539</v>
       </c>
       <c r="V20" t="n">
-        <v>1.941227154336364e-09</v>
+        <v>4.185911244838118e-09</v>
       </c>
       <c r="W20" t="n">
-        <v>2.284760167276203e-05</v>
+        <v>0.0004351589820004564</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0002034596287412311</v>
+        <v>6.52100074800647e-05</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.001192640056816172</v>
+        <v>0.0009088989053212644</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.00407972396580928</v>
+        <v>0.0111605302097264</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9258248095882028</v>
+        <v>0.9516953075539502</v>
       </c>
       <c r="AB20" t="n">
-        <v>5.359561662159616e-06</v>
+        <v>8.566337095612687e-06</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.001204164632489514</v>
+        <v>0.0005683609631128827</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0005515650819966001</v>
+        <v>0.0005868131872221163</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.004069036929650478</v>
+        <v>0.00347181649634287</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.233787659320703e-06</v>
+        <v>8.429683925037088e-07</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0002779570054218199</v>
+        <v>0.0004276553330473457</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.537941130519422e-06</v>
+        <v>3.784770064334292e-05</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.005493164633993483</v>
+        <v>0.007928688561071449</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.002225918271202985</v>
+        <v>0.0015169567336625</v>
       </c>
       <c r="AK20" t="n">
-        <v>9.60301876730195e-09</v>
+        <v>8.602800664217492e-09</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.04033058233700174</v>
+        <v>0.002395329176535797</v>
       </c>
       <c r="AM20" t="n">
-        <v>5.000778592084483e-05</v>
+        <v>3.225504227400675e-05</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0001702562387091894</v>
+        <v>7.343549210769069e-05</v>
       </c>
       <c r="AO20" t="n">
-        <v>4.209220425096944e-06</v>
+        <v>9.388501236554665e-06</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.217227893623722e-06</v>
+        <v>1.937839882415395e-06</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.493816260177718e-06</v>
+        <v>6.175244980265418e-06</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0003427645568757841</v>
+        <v>7.311025878287196e-05</v>
       </c>
       <c r="AS20" t="n">
-        <v>3.762389949825618e-05</v>
+        <v>2.206377949454915e-05</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.521810966524694e-08</v>
+        <v>2.180450731874577e-08</v>
       </c>
       <c r="AU20" t="n">
-        <v>2.008320576272655e-08</v>
+        <v>1.381307554823308e-07</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.0005291676879253769</v>
+        <v>0.0004683731953181111</v>
       </c>
       <c r="AW20" t="n">
-        <v>1.296030238279455e-07</v>
+        <v>3.909618565251574e-07</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.0003812970109454095</v>
+        <v>0.0007664456783710475</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.0003628055419301177</v>
+        <v>0.0004319458762497278</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.0002829257152418167</v>
+        <v>0.0002347164060026903</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.001818503834993515</v>
+        <v>0.003296375877128369</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.086212855794343e-06</v>
+        <v>3.865928780340431e-07</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.0004802198996748228</v>
+        <v>0.0001288749160517352</v>
       </c>
       <c r="BD20" t="n">
-        <v>6.18539211753384e-06</v>
+        <v>7.469777515786902e-06</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.698231251026306e-05</v>
+        <v>2.718832795486443e-05</v>
       </c>
       <c r="BF20" t="n">
-        <v>6.94750876750765e-06</v>
+        <v>1.592336182439895e-05</v>
       </c>
       <c r="BG20" t="n">
-        <v>5.572918434991916e-06</v>
+        <v>2.541899540433218e-05</v>
       </c>
       <c r="BH20" t="n">
-        <v>1.923832676343812e-05</v>
+        <v>2.407780272585958e-05</v>
       </c>
       <c r="BI20" t="n">
-        <v>5.41387363910726e-06</v>
+        <v>6.658038717950551e-06</v>
       </c>
       <c r="BJ20" t="n">
-        <v>7.0662398186155e-08</v>
+        <v>3.774449435355863e-08</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.0007430371005819527</v>
+        <v>0.0008602047936496325</v>
       </c>
       <c r="BL20" t="n">
-        <v>7.722297206618582e-05</v>
+        <v>9.181555056769398e-05</v>
       </c>
       <c r="BM20" t="n">
-        <v>3.667793756673468e-05</v>
+        <v>2.232949788908334e-05</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.0004387034468741397</v>
+        <v>0.0002643497841601128</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.0003404131051719655</v>
+        <v>0.0005015497066047917</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.190358324051121e-06</v>
+        <v>2.698915389628429e-06</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.0009381933227598796</v>
+        <v>0.0008394877692957185</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.001962135501494791</v>
+        <v>0.001975885029772197</v>
       </c>
       <c r="BS20" t="n">
-        <v>8.50640959895108e-05</v>
+        <v>0.0008898685657418122</v>
       </c>
       <c r="BT20" t="n">
-        <v>0.0005102038443457266</v>
+        <v>0.001632202452506943</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.9258248095882028</v>
+        <v>0.9516953075539502</v>
       </c>
       <c r="BV20" t="inlineStr">
         <is>
@@ -5241,224 +5241,224 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.433238592103488e-08</v>
+        <v>1.889306729447191e-08</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002129878057881845</v>
+        <v>0.002706163604351698</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0009845106994052252</v>
+        <v>0.006679274903987195</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006882181377989621</v>
+        <v>8.177257699595777e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0004744967544118494</v>
+        <v>0.001360505443908502</v>
       </c>
       <c r="G21" t="n">
-        <v>5.045112542490492e-06</v>
+        <v>0.0002116378469277231</v>
       </c>
       <c r="H21" t="n">
-        <v>2.113821671679892e-06</v>
+        <v>2.79303481406786e-07</v>
       </c>
       <c r="I21" t="n">
-        <v>2.23336844372285e-06</v>
+        <v>1.866443309738056e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>6.924415922857171e-09</v>
+        <v>4.245223007765113e-09</v>
       </c>
       <c r="K21" t="n">
-        <v>2.486627239603366e-06</v>
+        <v>1.088499461846141e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.262913778307107e-05</v>
+        <v>2.579526811687196e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>1.964115645706449e-06</v>
+        <v>4.198921556065152e-06</v>
       </c>
       <c r="N21" t="n">
-        <v>2.220546571965083e-14</v>
+        <v>2.220564795315217e-14</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001277708634133438</v>
+        <v>0.0004999093858946477</v>
       </c>
       <c r="P21" t="n">
-        <v>8.214788863809905e-06</v>
+        <v>0.00187381678335508</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.452560419700115e-06</v>
+        <v>8.957017983088686e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>2.802153152373789e-06</v>
+        <v>3.017070559316317e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>6.926136295116381e-07</v>
+        <v>8.27474367257302e-07</v>
       </c>
       <c r="T21" t="n">
-        <v>3.826630084251515e-05</v>
+        <v>8.480837135395254e-05</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003910182429011539</v>
+        <v>0.000164302747762689</v>
       </c>
       <c r="V21" t="n">
-        <v>4.185911244838118e-09</v>
+        <v>4.19821012805784e-09</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0004351589820004564</v>
+        <v>0.01093605865935941</v>
       </c>
       <c r="X21" t="n">
-        <v>6.52100074800647e-05</v>
+        <v>4.703992866951027e-05</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0009088989053212644</v>
+        <v>0.0001477942330541497</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0111605302097264</v>
+        <v>0.003522033758317882</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9516953075539502</v>
+        <v>0.9352790724765566</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.566337095612687e-06</v>
+        <v>1.231451580670692e-05</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0005683609631128827</v>
+        <v>0.003088110852361863</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0005868131872221163</v>
+        <v>0.00416826459592767</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.00347181649634287</v>
+        <v>0.000685347787795356</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.429683925037088e-07</v>
+        <v>3.047995866679329e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.0004276553330473457</v>
+        <v>2.624871386759352e-05</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.784770064334292e-05</v>
+        <v>2.709675622500557e-06</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.007928688561071449</v>
+        <v>0.00430849606287601</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.0015169567336625</v>
+        <v>0.0005336638508457027</v>
       </c>
       <c r="AK21" t="n">
-        <v>8.602800664217492e-09</v>
+        <v>1.36817852413666e-07</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.002395329176535797</v>
+        <v>0.006496049509826893</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.225504227400675e-05</v>
+        <v>5.818522223115636e-05</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.343549210769069e-05</v>
+        <v>0.001035326830478075</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.388501236554665e-06</v>
+        <v>3.107249903364713e-05</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.937839882415395e-06</v>
+        <v>3.473302459794806e-06</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6.175244980265418e-06</v>
+        <v>4.43071620706138e-06</v>
       </c>
       <c r="AR21" t="n">
-        <v>7.311025878287196e-05</v>
+        <v>9.72832694375096e-05</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.206377949454915e-05</v>
+        <v>9.142671090243271e-05</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.180450731874577e-08</v>
+        <v>3.736189922383497e-08</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.381307554823308e-07</v>
+        <v>3.087068728651975e-07</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0004683731953181111</v>
+        <v>0.0006987561114620103</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.909618565251574e-07</v>
+        <v>2.134907032899378e-08</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.0007664456783710475</v>
+        <v>0.0001099700733687797</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.0004319458762497278</v>
+        <v>0.0002402349346366183</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.0002347164060026903</v>
+        <v>0.0001703121275119019</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.003296375877128369</v>
+        <v>0.001554636188241271</v>
       </c>
       <c r="BB21" t="n">
-        <v>3.865928780340431e-07</v>
+        <v>1.913773267458021e-06</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.0001288749160517352</v>
+        <v>0.000523611361999215</v>
       </c>
       <c r="BD21" t="n">
-        <v>7.469777515786902e-06</v>
+        <v>3.70074619393248e-05</v>
       </c>
       <c r="BE21" t="n">
-        <v>2.718832795486443e-05</v>
+        <v>0.0002300699301992681</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.592336182439895e-05</v>
+        <v>4.211079208505607e-06</v>
       </c>
       <c r="BG21" t="n">
-        <v>2.541899540433218e-05</v>
+        <v>3.001522544964075e-06</v>
       </c>
       <c r="BH21" t="n">
-        <v>2.407780272585958e-05</v>
+        <v>0.0001351579823146699</v>
       </c>
       <c r="BI21" t="n">
-        <v>6.658038717950551e-06</v>
+        <v>8.290771652859491e-06</v>
       </c>
       <c r="BJ21" t="n">
-        <v>3.774449435355863e-08</v>
+        <v>4.104951371392769e-07</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.0008602047936496325</v>
+        <v>0.001300909798655778</v>
       </c>
       <c r="BL21" t="n">
-        <v>9.181555056769398e-05</v>
+        <v>0.0002494075023735255</v>
       </c>
       <c r="BM21" t="n">
-        <v>2.232949788908334e-05</v>
+        <v>0.0001280421377115248</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.0002643497841601128</v>
+        <v>0.0004686636800218321</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.0005015497066047917</v>
+        <v>0.0007366364556231264</v>
       </c>
       <c r="BP21" t="n">
-        <v>2.698915389628429e-06</v>
+        <v>0.0001205993027416539</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.0008394877692957185</v>
+        <v>0.00289917579771324</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.001975885029772197</v>
+        <v>0.00283928565294073</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.0008898685657418122</v>
+        <v>0.002597259200225431</v>
       </c>
       <c r="BT21" t="n">
-        <v>0.001632202452506943</v>
+        <v>0.0006217191609610551</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.9516953075539502</v>
+        <v>0.9352790724765566</v>
       </c>
       <c r="BV21" t="inlineStr">
         <is>
@@ -5474,224 +5474,224 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT76034.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.889306729447191e-08</v>
+        <v>7.220923942499607e-08</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002706163604351698</v>
+        <v>0.003094829407805675</v>
       </c>
       <c r="D22" t="n">
-        <v>0.006679274903987195</v>
+        <v>0.007481155995855475</v>
       </c>
       <c r="E22" t="n">
-        <v>8.177257699595777e-05</v>
+        <v>0.0002262185436251471</v>
       </c>
       <c r="F22" t="n">
-        <v>0.001360505443908502</v>
+        <v>0.008403319020128818</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002116378469277231</v>
+        <v>0.0002257990852189185</v>
       </c>
       <c r="H22" t="n">
-        <v>2.79303481406786e-07</v>
+        <v>2.906005723873555e-06</v>
       </c>
       <c r="I22" t="n">
-        <v>1.866443309738056e-06</v>
+        <v>5.230748355976299e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>4.245223007765113e-09</v>
+        <v>4.339543327452081e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>1.088499461846141e-05</v>
+        <v>1.26513012589026e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>2.579526811687196e-05</v>
+        <v>9.414109054831295e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>4.198921556065152e-06</v>
+        <v>1.01519610764622e-07</v>
       </c>
       <c r="N22" t="n">
-        <v>2.220564795315217e-14</v>
+        <v>2.220482451100777e-14</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0004999093858946477</v>
+        <v>0.000264284746499089</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00187381678335508</v>
+        <v>3.443161246019191e-05</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.957017983088686e-06</v>
+        <v>6.735307939942034e-06</v>
       </c>
       <c r="R22" t="n">
-        <v>3.017070559316317e-07</v>
+        <v>4.176550967368122e-07</v>
       </c>
       <c r="S22" t="n">
-        <v>8.27474367257302e-07</v>
+        <v>1.452045594648847e-05</v>
       </c>
       <c r="T22" t="n">
-        <v>8.480837135395254e-05</v>
+        <v>7.437371843986993e-05</v>
       </c>
       <c r="U22" t="n">
-        <v>0.000164302747762689</v>
+        <v>0.0002277160366438856</v>
       </c>
       <c r="V22" t="n">
-        <v>4.19821012805784e-09</v>
+        <v>2.042188456192441e-09</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01093605865935941</v>
+        <v>0.0003302833849131682</v>
       </c>
       <c r="X22" t="n">
-        <v>4.703992866951027e-05</v>
+        <v>5.307375476967794e-05</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0001477942330541497</v>
+        <v>0.0003679305810118519</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.003522033758317882</v>
+        <v>0.003244948763502727</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9352790724765566</v>
+        <v>0.9332054551959134</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.231451580670692e-05</v>
+        <v>2.697464706599751e-05</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.003088110852361863</v>
+        <v>0.001391900814481605</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.00416826459592767</v>
+        <v>0.0004407048097107938</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.000685347787795356</v>
+        <v>0.0005340533927941385</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.047995866679329e-05</v>
+        <v>7.814553886078937e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>2.624871386759352e-05</v>
+        <v>5.61318139779891e-05</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.709675622500557e-06</v>
+        <v>0.0001104393293575247</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.00430849606287601</v>
+        <v>0.003882464479818618</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.0005336638508457027</v>
+        <v>0.0009657113170530577</v>
       </c>
       <c r="AK22" t="n">
-        <v>1.36817852413666e-07</v>
+        <v>2.934258781199292e-08</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.006496049509826893</v>
+        <v>0.01987299564296267</v>
       </c>
       <c r="AM22" t="n">
-        <v>5.818522223115636e-05</v>
+        <v>4.436202456008772e-05</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.001035326830478075</v>
+        <v>0.001419963888828886</v>
       </c>
       <c r="AO22" t="n">
-        <v>3.107249903364713e-05</v>
+        <v>3.441084459504659e-06</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.473302459794806e-06</v>
+        <v>1.711721771826425e-05</v>
       </c>
       <c r="AQ22" t="n">
-        <v>4.43071620706138e-06</v>
+        <v>2.601133650370107e-06</v>
       </c>
       <c r="AR22" t="n">
-        <v>9.72832694375096e-05</v>
+        <v>5.016793536541733e-05</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.142671090243271e-05</v>
+        <v>2.552523132326196e-05</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.736189922383497e-08</v>
+        <v>2.389488288177544e-08</v>
       </c>
       <c r="AU22" t="n">
-        <v>3.087068728651975e-07</v>
+        <v>1.109304456888279e-06</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.0006987561114620103</v>
+        <v>0.0003307052296162584</v>
       </c>
       <c r="AW22" t="n">
-        <v>2.134907032899378e-08</v>
+        <v>1.127384557653279e-07</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.0001099700733687797</v>
+        <v>6.874466255793257e-05</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.0002402349346366183</v>
+        <v>0.0005100035803380044</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.0001703121275119019</v>
+        <v>0.0001805803508105749</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.001554636188241271</v>
+        <v>0.00173145649220251</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.913773267458021e-06</v>
+        <v>4.645979413300697e-06</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.000523611361999215</v>
+        <v>0.0008687239385724404</v>
       </c>
       <c r="BD22" t="n">
-        <v>3.70074619393248e-05</v>
+        <v>2.83624133649725e-05</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.0002300699301992681</v>
+        <v>0.0001841196279486524</v>
       </c>
       <c r="BF22" t="n">
-        <v>4.211079208505607e-06</v>
+        <v>1.1730106274724e-05</v>
       </c>
       <c r="BG22" t="n">
-        <v>3.001522544964075e-06</v>
+        <v>1.145976379039447e-06</v>
       </c>
       <c r="BH22" t="n">
-        <v>0.0001351579823146699</v>
+        <v>2.025043448895776e-05</v>
       </c>
       <c r="BI22" t="n">
-        <v>8.290771652859491e-06</v>
+        <v>3.951697203884627e-05</v>
       </c>
       <c r="BJ22" t="n">
-        <v>4.104951371392769e-07</v>
+        <v>1.10769366831734e-08</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.001300909798655778</v>
+        <v>0.001029970133938215</v>
       </c>
       <c r="BL22" t="n">
-        <v>0.0002494075023735255</v>
+        <v>0.0002381284361512265</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.0001280421377115248</v>
+        <v>0.0001028120219132696</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.0004686636800218321</v>
+        <v>0.0006320619861325296</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.0007366364556231264</v>
+        <v>0.0009597764827834467</v>
       </c>
       <c r="BP22" t="n">
-        <v>0.0001205993027416539</v>
+        <v>4.023810881001338e-05</v>
       </c>
       <c r="BQ22" t="n">
-        <v>0.00289917579771324</v>
+        <v>0.001814664204898103</v>
       </c>
       <c r="BR22" t="n">
-        <v>0.00283928565294073</v>
+        <v>0.002821268005444912</v>
       </c>
       <c r="BS22" t="n">
-        <v>0.002597259200225431</v>
+        <v>9.157238068511574e-05</v>
       </c>
       <c r="BT22" t="n">
-        <v>0.0006217191609610551</v>
+        <v>0.002079660275159451</v>
       </c>
       <c r="BU22" t="n">
-        <v>0.9352790724765566</v>
+        <v>0.9332054551959134</v>
       </c>
       <c r="BV22" t="inlineStr">
         <is>
@@ -5699,239 +5699,6 @@
         </is>
       </c>
       <c r="BW22" t="inlineStr">
-        <is>
-          <t>s__Prevotella sp003447235</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76034.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>7.220923942499607e-08</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.003094829407805675</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.007481155995855475</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0002262185436251471</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.008403319020128818</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.0002257990852189185</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.906005723873555e-06</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.230748355976299e-06</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.339543327452081e-09</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.26513012589026e-05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9.414109054831295e-06</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01519610764622e-07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.220482451100777e-14</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.000264284746499089</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.443161246019191e-05</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>6.735307939942034e-06</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4.176550967368122e-07</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.452045594648847e-05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7.437371843986993e-05</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.0002277160366438856</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.042188456192441e-09</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.0003302833849131682</v>
-      </c>
-      <c r="X23" t="n">
-        <v>5.307375476967794e-05</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.0003679305810118519</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.003244948763502727</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.9332054551959134</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>2.697464706599751e-05</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0.001391900814481605</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.0004407048097107938</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.0005340533927941385</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>7.814553886078937e-05</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>5.61318139779891e-05</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.0001104393293575247</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.003882464479818618</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.0009657113170530577</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>2.934258781199292e-08</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.01987299564296267</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>4.436202456008772e-05</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0.001419963888828886</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>3.441084459504659e-06</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1.711721771826425e-05</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>2.601133650370107e-06</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>5.016793536541733e-05</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>2.552523132326196e-05</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.389488288177544e-08</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1.109304456888279e-06</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0.0003307052296162584</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1.127384557653279e-07</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>6.874466255793257e-05</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0.0005100035803380044</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0.0001805803508105749</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0.00173145649220251</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4.645979413300697e-06</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0.0008687239385724404</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>2.83624133649725e-05</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0.0001841196279486524</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>1.1730106274724e-05</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>1.145976379039447e-06</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>2.025043448895776e-05</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>3.951697203884627e-05</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>1.10769366831734e-08</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0.001029970133938215</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0.0002381284361512265</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0.0001028120219132696</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0.0006320619861325296</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>0.0009597764827834467</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>4.023810881001338e-05</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>0.001814664204898103</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>0.002821268005444912</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>9.157238068511574e-05</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>0.002079660275159451</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0.9332054551959134</v>
-      </c>
-      <c r="BV23" t="inlineStr">
-        <is>
-          <t>s__Prevotella sp003447235</t>
-        </is>
-      </c>
-      <c r="BW23" t="inlineStr">
         <is>
           <t>s__Prevotella sp003447235</t>
         </is>
